--- a/Documents/TABLE구조.xlsx
+++ b/Documents/TABLE구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimjong-gyu/Desktop/github/projectTemp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{038C5769-10D6-074F-9F99-30E6798C6C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B42F92-9569-1341-8106-D965CA34A7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="15860" windowHeight="16240" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>판매자 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>frimary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001.001.001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,31 +103,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호불호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레시피 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천요리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팔린 상품 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종낙찰</t>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">primary key </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료(품목,,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류(용도,,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류(tokenize)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔린 상품테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요된 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호(복수체크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불호(복수체크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(카테고리,,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +210,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -178,8 +254,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,134 +584,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ECB6F7-6362-B146-BB01-9A1AC6E98231}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/TABLE구조.xlsx
+++ b/Documents/TABLE구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimjong-gyu/Desktop/github/projectTemp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B42F92-9569-1341-8106-D965CA34A7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655F76DA-8324-A941-B2EB-70C8155F7B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
+    <workbookView xWindow="13020" yWindow="460" windowWidth="15780" windowHeight="16080" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>판매자 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001.001.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    지역ID:무슨구 무슨동 시장 이름 고육 식별 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,22 +111,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시장이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">primary key </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>판매자이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종류(tokenize)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레시피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(카테고리,,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,7 +163,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>커뮤니티 이름</t>
+    <t>구단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지역ID: 지역테이블을 통해 무슨 구 무슨 동 을 식별번호로 만든다 예를 들면 001.001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">**같은 색깔은 foreign key로 묶는다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테코리: 주요 상품이 어떤건지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류: tokenize를 함으로써 복수 용도 허용가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자ID: 판매자가 어떠한 소비자가 살았는지 알아야 해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: Foreign key를 통해 물건을 산 소비자 정보를 알려줄수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류: 상품테이블에 있는걸 하나를 선택함으로써 레시피를 추천 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료: 상품테이블 복수적으로 살수도 있으므로 토크나이즈를 해줘야합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">커뮤니티ID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티ID: 이름보다는 숫자를 통해 커뮤니티 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요된시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요된 시간: 물건이 올리고 얼마만에 팔렸는지 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜: 사는 날이 언젠지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +271,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -248,26 +320,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,234 +897,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ECB6F7-6362-B146-BB01-9A1AC6E98231}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="14"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="13"/>
+      <c r="I3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="19" thickBot="1">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="K12" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A19:B19"/>
+  <mergeCells count="2">
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/TABLE구조.xlsx
+++ b/Documents/TABLE구조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimjong-gyu/Desktop/github/projectTemp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655F76DA-8324-A941-B2EB-70C8155F7B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD8E17-C1E1-434F-98B6-B1029B0063C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="460" windowWidth="15780" windowHeight="16080" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,39 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{F52368B7-DB6F-4DA9-82A6-2B9CF1C086CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>커뮤니티 이름에 따른 ID 부여</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>판매자 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,18 +125,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지역테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시장이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>판매자이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,26 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비자 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구단위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동단위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">지역ID: 지역테이블을 통해 무슨 구 무슨 동 을 식별번호로 만든다 예를 들면 001.001 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">커뮤니티ID </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>커뮤니티ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +222,102 @@
   </si>
   <si>
     <t>날짜: 사는 날이 언젠지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리: 한식, 양식 등 큰 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 게시물 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장 이름(,,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,, : 리스트 형태로 데이터 보관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 소속 시장 데이터를 어떤식으로 보관 할 것인지 고민해봐야 할듯: 판매자 테이블 + 지역 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성 시간 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID: 상품 테이블에서 날짜만 추가해서 올려주는 테이블이기 때문에, 상품 ID는 절대로 겹칠 일이 없게 디자인 하면 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,54 +351,80 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9" tint="0.39997558519241921"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFF00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -321,13 +433,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -342,10 +484,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -357,10 +499,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -372,10 +514,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -387,109 +529,76 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -498,89 +607,164 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,6 +773,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -896,385 +1086,523 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ECB6F7-6362-B146-BB01-9A1AC6E98231}">
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ECB6F7-6362-B146-BB01-9A1AC6E98231}">
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="J1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="12" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="33"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="46">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="2"/>
+      <c r="L8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I9" s="2"/>
+      <c r="L9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="N9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="2"/>
+      <c r="L10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="L12" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="L14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="14"/>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="19" thickBot="1">
-      <c r="A4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="I4" t="s">
+      <c r="H15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="45">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="G22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="N22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="B23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+      <c r="N24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G26" s="44">
+        <v>1</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="K12" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="14">
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H26:O27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L14:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/TABLE구조.xlsx
+++ b/Documents/TABLE구조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Contest\projectTemp\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD8E17-C1E1-434F-98B6-B1029B0063C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B2486-C691-420C-8A1C-D6A5B63C591B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
+    <workbookView xWindow="4110" yWindow="945" windowWidth="21600" windowHeight="13185" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,16 +55,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>판매자 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지역ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>foreign key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지역테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>판매자이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">지역ID: 지역테이블을 통해 무슨 구 무슨 동 을 식별번호로 만든다 예를 들면 001.001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">**같은 색깔은 foreign key로 묶는다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시장 이름(,,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>,, : 리스트 형태로 데이터 보관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +302,14 @@
   </si>
   <si>
     <t>상품 ID: 상품 테이블에서 날짜만 추가해서 올려주는 테이블이기 때문에, 상품 ID는 절대로 겹칠 일이 없게 디자인 하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,14 +343,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -372,6 +356,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -424,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -601,13 +592,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,31 +685,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -683,88 +757,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,124 +1134,102 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="J1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="44"/>
+      <c r="J1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="J3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="46">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="20"/>
+      <c r="P3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1215,80 +1237,79 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>26</v>
+      </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="2"/>
+      <c r="L8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="2"/>
-      <c r="L8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2"/>
       <c r="L9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>45</v>
+      <c r="A10" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1299,306 +1320,314 @@
       <c r="H10" s="8"/>
       <c r="I10" s="2"/>
       <c r="L10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="M10" s="22"/>
       <c r="N10" s="7"/>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1"/>
       <c r="L12" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L13" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="44"/>
+      <c r="L14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="L14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="33"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="29" t="s">
+      <c r="H15" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="18"/>
+      <c r="B16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="45">
-        <v>1</v>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
     </row>
     <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="G22" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
+      <c r="N22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="34"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="G22" s="21" t="s">
+      <c r="E23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="N22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="37" t="s">
+      <c r="K23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="47" t="s">
+      <c r="L23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="P23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O23" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>44</v>
+      <c r="A24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
-      <c r="G24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>44</v>
+      <c r="G24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8"/>
       <c r="N24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="48" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G26" s="44">
+      <c r="G26" s="38">
         <v>1</v>
       </c>
-      <c r="H26" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
+      <c r="H26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="H26:O27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="N22:S22"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L14:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/TABLE구조.xlsx
+++ b/Documents/TABLE구조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Contest\projectTemp\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B2486-C691-420C-8A1C-D6A5B63C591B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9D26F-A7C7-4A2C-BA4A-5375BCABA9B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4110" yWindow="945" windowWidth="21600" windowHeight="13185" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{F52368B7-DB6F-4DA9-82A6-2B9CF1C086CC}">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{F52368B7-DB6F-4DA9-82A6-2B9CF1C086CC}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>판매자 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>판매자이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재료(품목,,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +306,18 @@
   </si>
   <si>
     <t>가게 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 ID:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 + 정수 형태의 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -642,13 +650,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +779,45 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,49 +839,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,6 +869,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,91 +1172,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ECB6F7-6362-B146-BB01-9A1AC6E98231}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="44"/>
-      <c r="J1" s="32" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="36"/>
+      <c r="J1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="44"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="47" t="s">
+      <c r="J2" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="49" t="s">
-        <v>22</v>
+      <c r="O2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
       <c r="J3" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="43" t="s">
         <v>41</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>1</v>
@@ -1224,56 +1275,63 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
       <c r="K4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="2"/>
-      <c r="L8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
@@ -1285,31 +1343,25 @@
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="L9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1319,114 +1371,74 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="2"/>
-      <c r="L10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="L12" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L13" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    </row>
+    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="44"/>
-      <c r="L14" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>55</v>
+      <c r="I15" s="44" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="43" t="s">
         <v>41</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1435,199 +1447,282 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
-      <c r="N22" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="34"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="36" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="G36" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="N36" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="47"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="G38" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="N38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G40" s="51">
+        <v>1</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="G24" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="N24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G26" s="38">
-        <v>1</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>25</v>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="H40:O41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A14:I14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="H26:O27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/TABLE구조.xlsx
+++ b/Documents/TABLE구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Contest\projectTemp\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9D26F-A7C7-4A2C-BA4A-5375BCABA9B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D894A-B95F-4E3B-9A48-BEA73EA0E634}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="945" windowWidth="21600" windowHeight="13185" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
+    <workbookView xWindow="35520" yWindow="4710" windowWidth="21600" windowHeight="12855" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>판매자 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,10 @@
   </si>
   <si>
     <t>판매자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 허용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -676,13 +680,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,6 +856,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,6 +874,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,16 +886,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,10 +916,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,36 +1218,36 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="36"/>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
       <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1251,7 +1294,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1308,23 +1351,23 @@
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="2"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -1391,17 +1434,17 @@
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1444,7 +1487,9 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="57" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="18"/>
       <c r="I16" s="19" t="s">
         <v>40</v>
@@ -1457,12 +1502,12 @@
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1502,15 +1547,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
@@ -1522,7 +1567,7 @@
       <c r="C29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -1543,7 +1588,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
@@ -1552,29 +1597,29 @@
       <c r="A35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="G36" s="45" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="G36" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="N36" s="45" t="s">
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+      <c r="N36" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="47"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="50"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
@@ -1664,30 +1709,30 @@
       <c r="S38" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G40" s="51">
+      <c r="G40" s="47">
         <v>1</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="H40" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -1711,18 +1756,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="H40:O41"/>
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="N36:S36"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/TABLE구조.xlsx
+++ b/Documents/TABLE구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Contest\projectTemp\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D894A-B95F-4E3B-9A48-BEA73EA0E634}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4D3D7-A15E-41F8-A0F4-4A80BD93AEE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="4710" windowWidth="21600" windowHeight="12855" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{8554D620-BF61-6641-870D-57B59306EBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>판매자 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +322,26 @@
   </si>
   <si>
     <t>null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볶음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡㅡ&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,38 +882,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,32 +1238,32 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="36"/>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="52"/>
       <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1351,23 +1371,23 @@
     </row>
     <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="2"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -1434,17 +1454,17 @@
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1487,7 +1507,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="49" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="18"/>
@@ -1495,21 +1515,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="48" t="s">
+    <row r="21" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1522,8 +1558,14 @@
       <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>41</v>
       </c>
@@ -1531,33 +1573,33 @@
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="52" t="s">
+    <row r="28" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>50</v>
       </c>
@@ -1567,7 +1609,7 @@
       <c r="C29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="47" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -1580,7 +1622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>40</v>
       </c>
@@ -1588,7 +1630,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
@@ -1597,29 +1639,29 @@
       <c r="A35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="G36" s="48" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="G36" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-      <c r="N36" s="48" t="s">
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
+      <c r="N36" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="50"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="52"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
@@ -1709,30 +1751,30 @@
       <c r="S38" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G40" s="47">
+      <c r="G40" s="56">
         <v>1</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -1756,18 +1798,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H40:O41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="G36:L36"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H40:O41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="N36:S36"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="L8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
